--- a/xaomi_mi8_1ft_cleaned.xlsx
+++ b/xaomi_mi8_1ft_cleaned.xlsx
@@ -8,14 +8,46 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophie Walker\Desktop\BLE Tag Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D745EA52-0D3E-4C21-9CB9-FE8C6EAE99AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E4DC0E-D6C5-48B8-8428-956831E01E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4215" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="xaomi_mi8_1ft" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">xaomi_mi8_1ft!$H$121:$H$181</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">xaomi_mi8_1ft!$H$123:$H$126</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">xaomi_mi8_1ft!$H$392</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">xaomi_mi8_1ft!$H$396</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">xaomi_mi8_1ft!$H$397</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">xaomi_mi8_1ft!$H$60:$H$120</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">xaomi_mi8_1ft!$H$61:$H$120</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">xaomi_mi8_1ft!$H$65</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">xaomi_mi8_1ft!$H$2:$H$392</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">xaomi_mi8_1ft!$H$127</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">xaomi_mi8_1ft!$H$127:$H$134</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">xaomi_mi8_1ft!$H$182:$H$219</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">xaomi_mi8_1ft!$H$220:$H$318</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">xaomi_mi8_1ft!$H$2:$H$392</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">xaomi_mi8_1ft!$H$2:$H$60</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">xaomi_mi8_1ft!$H$371:$H$396</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">xaomi_mi8_1ft!$H$391</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2423,6 +2455,763 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.8</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.14</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="5">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000007-542D-4FC6-B49E-A7C86B6BC186}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>!</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000008-542D-4FC6-B49E-A7C86B6BC186}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Give</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000009-542D-4FC6-B49E-A7C86B6BC186}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Up</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{0000000A-542D-4FC6-B49E-A7C86B6BC186}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Never</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{0000000B-542D-4FC6-B49E-A7C86B6BC186}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Gonna</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{0000000C-542D-4FC6-B49E-A7C86B6BC186}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>You</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="5"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9C9008B-BB42-3829-A1B3-68A2F916C4B5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6972300" y="8867775"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2720,10 +3509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G392"/>
+  <dimension ref="A2:H392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="A319" sqref="A319:H329"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="P67" sqref="P67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2731,7 +3520,7 @@
     <col min="1" max="1" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2753,8 +3542,12 @@
       <c r="G2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f>CONVERT(VALUE(LEFT(G2,LEN(G2)-2)),"m","cm")</f>
+        <v>85.751397690386099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2776,8 +3569,12 @@
       <c r="G3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="0">CONVERT(VALUE(LEFT(G3,LEN(G3)-2)),"m","cm")</f>
+        <v>98.317953809887698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2799,8 +3596,12 @@
       <c r="G4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>100.150484362665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2822,8 +3623,12 @@
       <c r="G5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>102.298636456719</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2845,8 +3650,12 @@
       <c r="G6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>102.298636456719</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2868,8 +3677,12 @@
       <c r="G7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>102.298636456719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2891,8 +3704,12 @@
       <c r="G8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>98.198903418359208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2914,8 +3731,12 @@
       <c r="G9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>97.638838468921691</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2937,8 +3758,12 @@
       <c r="G10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>91.841410373624186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2960,8 +3785,12 @@
       <c r="G11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>94.491776602259193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2983,8 +3812,12 @@
       <c r="G12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>98.132640597246606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -3006,8 +3839,12 @@
       <c r="G13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>98.979266237371903</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -3029,8 +3866,12 @@
       <c r="G14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>97.084999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -3052,8 +3893,12 @@
       <c r="G15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>97.901441173036005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -3075,8 +3920,12 @@
       <c r="G16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>92.717335260933496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -3098,8 +3947,12 @@
       <c r="G17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>98.132640597246606</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -3121,8 +3974,12 @@
       <c r="G18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>98.198903418359208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -3144,8 +4001,12 @@
       <c r="G19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>101.094674793919</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -3167,8 +4028,12 @@
       <c r="G20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>101.094674793919</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -3190,8 +4055,12 @@
       <c r="G21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>100.50259694405399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -3213,8 +4082,12 @@
       <c r="G22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>99.917040526202911</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -3236,8 +4109,12 @@
       <c r="G23" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>98.765252969683615</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -3259,8 +4136,12 @@
       <c r="G24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>101.094674793919</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -3282,8 +4163,12 @@
       <c r="G25" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>103.405114886315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -3305,8 +4190,12 @@
       <c r="G26" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>106.26871484524901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -3328,8 +4217,12 @@
       <c r="G27" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>105.106347970676</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -3351,8 +4244,12 @@
       <c r="G28" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>103.96661167221899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -3374,8 +4271,12 @@
       <c r="G29" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>104.53367409515499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -3397,8 +4298,12 @@
       <c r="G30" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>104.15501181941799</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -3420,8 +4325,12 @@
       <c r="G31" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>101.213878234836</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -3443,8 +4352,12 @@
       <c r="G32" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>98.594684745538601</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -3466,8 +4379,12 @@
       <c r="G33" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>98.455552440414792</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -3489,8 +4406,12 @@
       <c r="G34" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>104.787500311413</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -3512,8 +4433,12 @@
       <c r="G35" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>110.10310528176099</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -3535,8 +4460,12 @@
       <c r="G36" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>104.787500311413</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -3558,8 +4487,12 @@
       <c r="G37" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>99.917040526202911</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>69</v>
       </c>
@@ -3581,8 +4514,12 @@
       <c r="G38" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>97.084999999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -3604,8 +4541,12 @@
       <c r="G39" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>97.084999999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -3627,8 +4568,12 @@
       <c r="G40" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>101.094674793919</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>72</v>
       </c>
@@ -3650,8 +4595,12 @@
       <c r="G41" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>105.83015170379899</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>74</v>
       </c>
@@ -3673,8 +4622,12 @@
       <c r="G42" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>118.311988978678</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>76</v>
       </c>
@@ -3696,8 +4649,12 @@
       <c r="G43" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>119.323222029565</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -3719,8 +4676,12 @@
       <c r="G44" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>119.578179443441</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>80</v>
       </c>
@@ -3742,8 +4703,12 @@
       <c r="G45" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>115.897192629694</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -3765,8 +4730,12 @@
       <c r="G46" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>112.21796359273799</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -3788,8 +4757,12 @@
       <c r="G47" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>106.07339971438098</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>86</v>
       </c>
@@ -3811,8 +4784,12 @@
       <c r="G48" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>105.68467941475399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>88</v>
       </c>
@@ -3834,8 +4811,12 @@
       <c r="G49" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>108.05551379313</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>90</v>
       </c>
@@ -3857,8 +4838,12 @@
       <c r="G50" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>108.05551379313</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>91</v>
       </c>
@@ -3880,8 +4865,12 @@
       <c r="G51" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>108.66283543731801</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>93</v>
       </c>
@@ -3903,8 +4892,12 @@
       <c r="G52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>102.298636456719</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -3926,8 +4919,12 @@
       <c r="G53" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>102.298636456719</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>95</v>
       </c>
@@ -3949,8 +4946,12 @@
       <c r="G54" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>101.31160448065899</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -3972,8 +4973,12 @@
       <c r="G55" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>100.824736215597</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>99</v>
       </c>
@@ -3995,8 +5000,12 @@
       <c r="G56" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>100.50259694405399</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -4018,8 +5027,12 @@
       <c r="G57" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>101.094674793919</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>101</v>
       </c>
@@ -4041,8 +5054,12 @@
       <c r="G58" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>102.298636456719</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -4064,8 +5081,12 @@
       <c r="G59" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>102.298636456719</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>103</v>
       </c>
@@ -4087,8 +5108,12 @@
       <c r="G60" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>100.150484362665</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>106</v>
       </c>
@@ -4110,8 +5135,12 @@
       <c r="G61" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>60.873039471087395</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>108</v>
       </c>
@@ -4133,8 +5162,12 @@
       <c r="G62" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>62.439828521879704</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>110</v>
       </c>
@@ -4156,8 +5189,12 @@
       <c r="G63" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>62.439828521879704</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>111</v>
       </c>
@@ -4179,8 +5216,12 @@
       <c r="G64" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <f t="shared" si="0"/>
+        <v>62.439828521879704</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>112</v>
       </c>
@@ -4202,8 +5243,12 @@
       <c r="G65" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>65.682752297830504</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>114</v>
       </c>
@@ -4225,8 +5270,12 @@
       <c r="G66" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <f t="shared" si="0"/>
+        <v>65.682752297830504</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>115</v>
       </c>
@@ -4248,8 +5297,12 @@
       <c r="G67" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <f t="shared" ref="H67:H130" si="1">CONVERT(VALUE(LEFT(G67,LEN(G67)-2)),"m","cm")</f>
+        <v>64.042818927400603</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>117</v>
       </c>
@@ -4271,8 +5324,12 @@
       <c r="G68" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <f t="shared" si="1"/>
+        <v>63.437408391445004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>119</v>
       </c>
@@ -4294,8 +5351,12 @@
       <c r="G69" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69">
+        <f t="shared" si="1"/>
+        <v>66.796937304228194</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>121</v>
       </c>
@@ -4317,8 +5378,12 @@
       <c r="G70" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70">
+        <f t="shared" si="1"/>
+        <v>66.307405312754994</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>123</v>
       </c>
@@ -4340,8 +5405,12 @@
       <c r="G71" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71">
+        <f t="shared" si="1"/>
+        <v>63.437408391445004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>124</v>
       </c>
@@ -4363,8 +5432,12 @@
       <c r="G72" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72">
+        <f t="shared" si="1"/>
+        <v>66.307405312754994</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>125</v>
       </c>
@@ -4386,8 +5459,12 @@
       <c r="G73" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73">
+        <f t="shared" si="1"/>
+        <v>78.261820275386498</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>127</v>
       </c>
@@ -4409,8 +5486,12 @@
       <c r="G74" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74">
+        <f t="shared" si="1"/>
+        <v>101.52161364525701</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>129</v>
       </c>
@@ -4432,8 +5513,12 @@
       <c r="G75" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <f t="shared" si="1"/>
+        <v>104.69672059415301</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>131</v>
       </c>
@@ -4455,8 +5540,12 @@
       <c r="G76" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76">
+        <f t="shared" si="1"/>
+        <v>103.21917822359401</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>133</v>
       </c>
@@ -4478,8 +5567,12 @@
       <c r="G77" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77">
+        <f t="shared" si="1"/>
+        <v>100.755542545076</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>135</v>
       </c>
@@ -4501,8 +5594,12 @@
       <c r="G78" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78">
+        <f t="shared" si="1"/>
+        <v>90.726167067291883</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>137</v>
       </c>
@@ -4524,8 +5621,12 @@
       <c r="G79" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <f t="shared" si="1"/>
+        <v>84.286849162622701</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>139</v>
       </c>
@@ -4547,8 +5648,12 @@
       <c r="G80" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80">
+        <f t="shared" si="1"/>
+        <v>79.566154302817409</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>140</v>
       </c>
@@ -4570,8 +5675,12 @@
       <c r="G81" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81">
+        <f t="shared" si="1"/>
+        <v>69.463138040842296</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>142</v>
       </c>
@@ -4593,8 +5702,12 @@
       <c r="G82" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82">
+        <f t="shared" si="1"/>
+        <v>79.566154302817409</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>143</v>
       </c>
@@ -4616,8 +5729,12 @@
       <c r="G83" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83">
+        <f t="shared" si="1"/>
+        <v>85.751397690386099</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>144</v>
       </c>
@@ -4639,8 +5756,12 @@
       <c r="G84" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84">
+        <f t="shared" si="1"/>
+        <v>96.296723289123491</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>146</v>
       </c>
@@ -4662,8 +5783,12 @@
       <c r="G85" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85">
+        <f t="shared" si="1"/>
+        <v>85.915530854893589</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>148</v>
       </c>
@@ -4685,8 +5810,12 @@
       <c r="G86" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86">
+        <f t="shared" si="1"/>
+        <v>84.286849162622701</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>149</v>
       </c>
@@ -4708,8 +5837,12 @@
       <c r="G87" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87">
+        <f t="shared" si="1"/>
+        <v>80.406338317637406</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>151</v>
       </c>
@@ -4731,8 +5864,12 @@
       <c r="G88" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88">
+        <f t="shared" si="1"/>
+        <v>73.123923637140791</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>153</v>
       </c>
@@ -4754,8 +5891,12 @@
       <c r="G89" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89">
+        <f t="shared" si="1"/>
+        <v>73.356765103683202</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>155</v>
       </c>
@@ -4777,8 +5918,12 @@
       <c r="G90" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90">
+        <f t="shared" si="1"/>
+        <v>81.112581873064002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>157</v>
       </c>
@@ -4800,8 +5945,12 @@
       <c r="G91" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91">
+        <f t="shared" si="1"/>
+        <v>81.112581873064002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>158</v>
       </c>
@@ -4823,8 +5972,12 @@
       <c r="G92" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92">
+        <f t="shared" si="1"/>
+        <v>82.6860074401948</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>160</v>
       </c>
@@ -4846,8 +5999,12 @@
       <c r="G93" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93">
+        <f t="shared" si="1"/>
+        <v>84.286849162622701</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>161</v>
       </c>
@@ -4869,8 +6026,12 @@
       <c r="G94" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94">
+        <f t="shared" si="1"/>
+        <v>85.915530854893589</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>162</v>
       </c>
@@ -4892,8 +6053,12 @@
       <c r="G95" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95">
+        <f t="shared" si="1"/>
+        <v>67.785771330897504</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>164</v>
       </c>
@@ -4915,8 +6080,12 @@
       <c r="G96" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96">
+        <f t="shared" si="1"/>
+        <v>64.223195711159804</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>166</v>
       </c>
@@ -4938,8 +6107,12 @@
       <c r="G97" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97">
+        <f t="shared" si="1"/>
+        <v>54.796753954391001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>168</v>
       </c>
@@ -4961,8 +6134,12 @@
       <c r="G98" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98">
+        <f t="shared" si="1"/>
+        <v>54.796753954391001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>169</v>
       </c>
@@ -4984,8 +6161,12 @@
       <c r="G99" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99">
+        <f t="shared" si="1"/>
+        <v>53.7106298698071</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>171</v>
       </c>
@@ -5007,8 +6188,12 @@
       <c r="G100" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100">
+        <f t="shared" si="1"/>
+        <v>55.902605238634095</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>173</v>
       </c>
@@ -5030,8 +6215,12 @@
       <c r="G101" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101">
+        <f t="shared" si="1"/>
+        <v>54.796753954391001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>174</v>
       </c>
@@ -5053,8 +6242,12 @@
       <c r="G102" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102">
+        <f t="shared" si="1"/>
+        <v>54.251245704658103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>176</v>
       </c>
@@ -5076,8 +6269,12 @@
       <c r="G103" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103">
+        <f t="shared" si="1"/>
+        <v>52.327645822002097</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>178</v>
       </c>
@@ -5099,8 +6296,12 @@
       <c r="G104" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104">
+        <f t="shared" si="1"/>
+        <v>50.567508261357993</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>180</v>
       </c>
@@ -5122,8 +6323,12 @@
       <c r="G105" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105">
+        <f t="shared" si="1"/>
+        <v>49.557202045018997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>181</v>
       </c>
@@ -5145,8 +6350,12 @@
       <c r="G106" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106">
+        <f t="shared" si="1"/>
+        <v>49.557202045018997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>182</v>
       </c>
@@ -5168,8 +6377,12 @@
       <c r="G107" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107">
+        <f t="shared" si="1"/>
+        <v>55.236709503970502</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>183</v>
       </c>
@@ -5191,8 +6404,12 @@
       <c r="G108" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108">
+        <f t="shared" si="1"/>
+        <v>57.256114533141897</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>185</v>
       </c>
@@ -5214,8 +6431,12 @@
       <c r="G109" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109">
+        <f t="shared" si="1"/>
+        <v>60.409952763430994</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>187</v>
       </c>
@@ -5237,8 +6458,12 @@
       <c r="G110" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110">
+        <f t="shared" si="1"/>
+        <v>67.190902188756198</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>189</v>
       </c>
@@ -5260,8 +6485,12 @@
       <c r="G111" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111">
+        <f t="shared" si="1"/>
+        <v>65.381800919709292</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>191</v>
       </c>
@@ -5283,8 +6512,12 @@
       <c r="G112" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112">
+        <f t="shared" si="1"/>
+        <v>73.356765103683202</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>192</v>
       </c>
@@ -5306,8 +6539,12 @@
       <c r="G113" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113">
+        <f t="shared" si="1"/>
+        <v>81.425093846593896</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>194</v>
       </c>
@@ -5329,8 +6566,12 @@
       <c r="G114" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114">
+        <f t="shared" si="1"/>
+        <v>97.084999999999994</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>195</v>
       </c>
@@ -5352,8 +6593,12 @@
       <c r="G115" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115">
+        <f t="shared" si="1"/>
+        <v>98.198903418359208</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>196</v>
       </c>
@@ -5375,8 +6620,12 @@
       <c r="G116" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116">
+        <f t="shared" si="1"/>
+        <v>98.765252969683615</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>197</v>
       </c>
@@ -5398,8 +6647,12 @@
       <c r="G117" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117">
+        <f t="shared" si="1"/>
+        <v>92.968976674943505</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>199</v>
       </c>
@@ -5421,8 +6674,12 @@
       <c r="G118" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118">
+        <f t="shared" si="1"/>
+        <v>74.000523779049701</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>201</v>
       </c>
@@ -5444,8 +6701,12 @@
       <c r="G119" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119">
+        <f t="shared" si="1"/>
+        <v>70.831826411281995</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>203</v>
       </c>
@@ -5467,8 +6728,12 @@
       <c r="G120" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120">
+        <f t="shared" si="1"/>
+        <v>76.341381403951402</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>211</v>
       </c>
@@ -5490,8 +6755,12 @@
       <c r="G121" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121">
+        <f t="shared" si="1"/>
+        <v>117.81149658221699</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>213</v>
       </c>
@@ -5513,8 +6782,12 @@
       <c r="G122" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122">
+        <f t="shared" si="1"/>
+        <v>137.48845371363899</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>215</v>
       </c>
@@ -5536,8 +6809,12 @@
       <c r="G123" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123">
+        <f t="shared" si="1"/>
+        <v>167.861698560138</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>217</v>
       </c>
@@ -5559,8 +6836,12 @@
       <c r="G124" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124">
+        <f t="shared" si="1"/>
+        <v>179.91039225567201</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>219</v>
       </c>
@@ -5582,8 +6863,12 @@
       <c r="G125" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125">
+        <f t="shared" si="1"/>
+        <v>165.57538109048599</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>221</v>
       </c>
@@ -5605,8 +6890,12 @@
       <c r="G126" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H126">
+        <f t="shared" si="1"/>
+        <v>156.82199970445799</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>223</v>
       </c>
@@ -5628,8 +6917,12 @@
       <c r="G127" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127">
+        <f t="shared" si="1"/>
+        <v>159.87747632179301</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>225</v>
       </c>
@@ -5651,8 +6944,12 @@
       <c r="G128" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128">
+        <f t="shared" si="1"/>
+        <v>160.39427586430799</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>227</v>
       </c>
@@ -5674,8 +6971,12 @@
       <c r="G129" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H129">
+        <f t="shared" si="1"/>
+        <v>161.43441763841099</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>229</v>
       </c>
@@ -5697,8 +6998,12 @@
       <c r="G130" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130">
+        <f t="shared" si="1"/>
+        <v>166.42805927571101</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>231</v>
       </c>
@@ -5720,8 +7025,12 @@
       <c r="G131" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131">
+        <f t="shared" ref="H131:H194" si="2">CONVERT(VALUE(LEFT(G131,LEN(G131)-2)),"m","cm")</f>
+        <v>176.79956771251301</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>233</v>
       </c>
@@ -5743,8 +7052,12 @@
       <c r="G132" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H132">
+        <f t="shared" si="2"/>
+        <v>179.91039225567201</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>234</v>
       </c>
@@ -5766,8 +7079,12 @@
       <c r="G133" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H133">
+        <f t="shared" si="2"/>
+        <v>175.269189081674</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>236</v>
       </c>
@@ -5789,8 +7106,12 @@
       <c r="G134" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H134">
+        <f t="shared" si="2"/>
+        <v>170.77640123576202</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>238</v>
       </c>
@@ -5812,8 +7133,12 @@
       <c r="G135" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H135">
+        <f t="shared" si="2"/>
+        <v>167.861698560138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>239</v>
       </c>
@@ -5835,8 +7160,12 @@
       <c r="G136" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136">
+        <f t="shared" si="2"/>
+        <v>163.607490727011</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>241</v>
       </c>
@@ -5858,8 +7187,12 @@
       <c r="G137" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137">
+        <f t="shared" si="2"/>
+        <v>169.311097928046</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>243</v>
       </c>
@@ -5881,8 +7214,12 @@
       <c r="G138" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H138">
+        <f t="shared" si="2"/>
+        <v>175.269189081674</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>244</v>
       </c>
@@ -5904,8 +7241,12 @@
       <c r="G139" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H139">
+        <f t="shared" si="2"/>
+        <v>179.91039225567201</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>245</v>
       </c>
@@ -5927,8 +7268,12 @@
       <c r="G140" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H140">
+        <f t="shared" si="2"/>
+        <v>177.82905478357003</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>247</v>
       </c>
@@ -5950,8 +7295,12 @@
       <c r="G141" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H141">
+        <f t="shared" si="2"/>
+        <v>179.91039225567201</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>248</v>
       </c>
@@ -5973,8 +7322,12 @@
       <c r="G142" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H142">
+        <f t="shared" si="2"/>
+        <v>179.91039225567201</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>249</v>
       </c>
@@ -5996,8 +7349,12 @@
       <c r="G143" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H143">
+        <f t="shared" si="2"/>
+        <v>170.188362189656</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>251</v>
       </c>
@@ -6019,8 +7376,12 @@
       <c r="G144" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H144">
+        <f t="shared" si="2"/>
+        <v>158.594957858188</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>253</v>
       </c>
@@ -6042,8 +7403,12 @@
       <c r="G145" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H145">
+        <f t="shared" si="2"/>
+        <v>144.80612883196798</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>255</v>
       </c>
@@ -6065,8 +7430,12 @@
       <c r="G146" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H146">
+        <f t="shared" si="2"/>
+        <v>141.08075110395399</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>257</v>
       </c>
@@ -6088,8 +7457,12 @@
       <c r="G147" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H147">
+        <f t="shared" si="2"/>
+        <v>146.71999269270501</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>259</v>
       </c>
@@ -6111,8 +7484,12 @@
       <c r="G148" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H148">
+        <f t="shared" si="2"/>
+        <v>155.32305738382499</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>261</v>
       </c>
@@ -6134,8 +7511,12 @@
       <c r="G149" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H149">
+        <f t="shared" si="2"/>
+        <v>164.07329544868401</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>263</v>
       </c>
@@ -6157,8 +7538,12 @@
       <c r="G150" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H150">
+        <f t="shared" si="2"/>
+        <v>171.19800070710102</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>265</v>
       </c>
@@ -6180,8 +7565,12 @@
       <c r="G151" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H151">
+        <f t="shared" si="2"/>
+        <v>163.011101833173</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>267</v>
       </c>
@@ -6203,8 +7592,12 @@
       <c r="G152" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H152">
+        <f t="shared" si="2"/>
+        <v>156.82199970445799</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>268</v>
       </c>
@@ -6226,8 +7619,12 @@
       <c r="G153" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H153">
+        <f t="shared" si="2"/>
+        <v>149.16133016966</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>270</v>
       </c>
@@ -6249,8 +7646,12 @@
       <c r="G154" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H154">
+        <f t="shared" si="2"/>
+        <v>154.49850356355199</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>272</v>
       </c>
@@ -6272,8 +7673,12 @@
       <c r="G155" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H155">
+        <f t="shared" si="2"/>
+        <v>165.323810899015</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>274</v>
       </c>
@@ -6295,8 +7700,12 @@
       <c r="G156" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H156">
+        <f t="shared" si="2"/>
+        <v>178.51950983020998</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>276</v>
       </c>
@@ -6318,8 +7727,12 @@
       <c r="G157" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H157">
+        <f t="shared" si="2"/>
+        <v>191.52838779487598</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>278</v>
       </c>
@@ -6341,8 +7754,12 @@
       <c r="G158" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H158">
+        <f t="shared" si="2"/>
+        <v>182.447782938187</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>280</v>
       </c>
@@ -6364,8 +7781,12 @@
       <c r="G159" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H159">
+        <f t="shared" si="2"/>
+        <v>174.30390677885799</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>282</v>
       </c>
@@ -6387,8 +7808,12 @@
       <c r="G160" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H160">
+        <f t="shared" si="2"/>
+        <v>170.188362189656</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>283</v>
       </c>
@@ -6410,8 +7835,12 @@
       <c r="G161" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H161">
+        <f t="shared" si="2"/>
+        <v>158.149259717099</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>285</v>
       </c>
@@ -6433,8 +7862,12 @@
       <c r="G162" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H162">
+        <f t="shared" si="2"/>
+        <v>156.82199970445799</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>286</v>
       </c>
@@ -6456,8 +7889,12 @@
       <c r="G163" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H163">
+        <f t="shared" si="2"/>
+        <v>169.311097928046</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>287</v>
       </c>
@@ -6479,8 +7916,12 @@
       <c r="G164" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H164">
+        <f t="shared" si="2"/>
+        <v>183.08898002282402</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>289</v>
       </c>
@@ -6502,8 +7943,12 @@
       <c r="G165" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H165">
+        <f t="shared" si="2"/>
+        <v>188.540542102008</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>291</v>
       </c>
@@ -6525,8 +7970,12 @@
       <c r="G166" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H166">
+        <f t="shared" si="2"/>
+        <v>202.44100334458599</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>293</v>
       </c>
@@ -6548,8 +7997,12 @@
       <c r="G167" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H167">
+        <f t="shared" si="2"/>
+        <v>200.04180606338599</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>295</v>
       </c>
@@ -6571,8 +8024,12 @@
       <c r="G168" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H168">
+        <f t="shared" si="2"/>
+        <v>189.17603764355101</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>297</v>
       </c>
@@ -6594,8 +8051,12 @@
       <c r="G169" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H169">
+        <f t="shared" si="2"/>
+        <v>197.006290509124</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>299</v>
       </c>
@@ -6617,8 +8078,12 @@
       <c r="G170" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H170">
+        <f t="shared" si="2"/>
+        <v>197.006290509124</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>300</v>
       </c>
@@ -6640,8 +8105,12 @@
       <c r="G171" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H171">
+        <f t="shared" si="2"/>
+        <v>199.02385592376302</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>302</v>
       </c>
@@ -6663,8 +8132,12 @@
       <c r="G172" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H172">
+        <f t="shared" si="2"/>
+        <v>190.77611375765201</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>304</v>
       </c>
@@ -6686,8 +8159,12 @@
       <c r="G173" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H173">
+        <f t="shared" si="2"/>
+        <v>179.91039225567201</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>305</v>
       </c>
@@ -6709,8 +8186,12 @@
       <c r="G174" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H174">
+        <f t="shared" si="2"/>
+        <v>167.861698560138</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>306</v>
       </c>
@@ -6732,8 +8213,12 @@
       <c r="G175" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H175">
+        <f t="shared" si="2"/>
+        <v>167.861698560138</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>307</v>
       </c>
@@ -6755,8 +8240,12 @@
       <c r="G176" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H176">
+        <f t="shared" si="2"/>
+        <v>173.75530033046797</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>309</v>
       </c>
@@ -6778,8 +8267,12 @@
       <c r="G177" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H177">
+        <f t="shared" si="2"/>
+        <v>176.79956771251301</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>310</v>
       </c>
@@ -6801,8 +8294,12 @@
       <c r="G178" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H178">
+        <f t="shared" si="2"/>
+        <v>179.91039225567201</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>311</v>
       </c>
@@ -6824,8 +8321,12 @@
       <c r="G179" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H179">
+        <f t="shared" si="2"/>
+        <v>187.65517787614701</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>313</v>
       </c>
@@ -6847,8 +8348,12 @@
       <c r="G180" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H180">
+        <f t="shared" si="2"/>
+        <v>187.65517787614701</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>314</v>
       </c>
@@ -6870,8 +8375,12 @@
       <c r="G181" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H181">
+        <f t="shared" si="2"/>
+        <v>174.61836910637402</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>316</v>
       </c>
@@ -6893,8 +8402,12 @@
       <c r="G182" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H182">
+        <f t="shared" si="2"/>
+        <v>167.861698560138</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>318</v>
       </c>
@@ -6916,8 +8429,12 @@
       <c r="G183" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H183">
+        <f t="shared" si="2"/>
+        <v>146.71999269270501</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>319</v>
       </c>
@@ -6939,8 +8456,12 @@
       <c r="G184" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H184">
+        <f t="shared" si="2"/>
+        <v>129.064061302346</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>321</v>
       </c>
@@ -6962,8 +8483,12 @@
       <c r="G185" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H185">
+        <f t="shared" si="2"/>
+        <v>129.064061302346</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>322</v>
       </c>
@@ -6985,8 +8510,12 @@
       <c r="G186" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H186">
+        <f t="shared" si="2"/>
+        <v>129.064061302346</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>323</v>
       </c>
@@ -7008,8 +8537,12 @@
       <c r="G187" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H187">
+        <f t="shared" si="2"/>
+        <v>116.086347581816</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>325</v>
       </c>
@@ -7031,8 +8564,12 @@
       <c r="G188" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H188">
+        <f t="shared" si="2"/>
+        <v>109.27609773727201</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>327</v>
       </c>
@@ -7054,8 +8591,12 @@
       <c r="G189" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H189">
+        <f t="shared" si="2"/>
+        <v>106.35261683018899</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>329</v>
       </c>
@@ -7077,8 +8618,12 @@
       <c r="G190" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H190">
+        <f t="shared" si="2"/>
+        <v>110.10310528176099</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>330</v>
       </c>
@@ -7100,8 +8645,12 @@
       <c r="G191" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H191">
+        <f t="shared" si="2"/>
+        <v>115.35950991003601</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>332</v>
       </c>
@@ -7123,8 +8672,12 @@
       <c r="G192" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H192">
+        <f t="shared" si="2"/>
+        <v>112.75740199413301</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>334</v>
       </c>
@@ -7146,8 +8699,12 @@
       <c r="G193" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H193">
+        <f t="shared" si="2"/>
+        <v>110.10310528176099</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>335</v>
       </c>
@@ -7169,8 +8726,12 @@
       <c r="G194" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H194">
+        <f t="shared" si="2"/>
+        <v>104.15501181941799</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>336</v>
       </c>
@@ -7192,8 +8753,12 @@
       <c r="G195" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H195">
+        <f t="shared" ref="H195:H258" si="3">CONVERT(VALUE(LEFT(G195,LEN(G195)-2)),"m","cm")</f>
+        <v>97.084999999999994</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>337</v>
       </c>
@@ -7215,8 +8780,12 @@
       <c r="G196" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H196">
+        <f t="shared" si="3"/>
+        <v>86.121094894435799</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>339</v>
       </c>
@@ -7238,8 +8807,12 @@
       <c r="G197" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H197">
+        <f t="shared" si="3"/>
+        <v>91.841410373624186</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>340</v>
       </c>
@@ -7261,8 +8834,12 @@
       <c r="G198" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H198">
+        <f t="shared" si="3"/>
+        <v>91.841410373624186</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>341</v>
       </c>
@@ -7284,8 +8861,12 @@
       <c r="G199" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H199">
+        <f t="shared" si="3"/>
+        <v>91.841410373624186</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>342</v>
       </c>
@@ -7307,8 +8888,12 @@
       <c r="G200" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H200">
+        <f t="shared" si="3"/>
+        <v>82.233678103551895</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>344</v>
       </c>
@@ -7330,8 +8915,12 @@
       <c r="G201" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H201">
+        <f t="shared" si="3"/>
+        <v>78.993120002530006</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>346</v>
       </c>
@@ -7353,8 +8942,12 @@
       <c r="G202" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H202">
+        <f t="shared" si="3"/>
+        <v>72.400574835324903</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>348</v>
       </c>
@@ -7376,8 +8969,12 @@
       <c r="G203" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H203">
+        <f t="shared" si="3"/>
+        <v>67.785771330897504</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>349</v>
       </c>
@@ -7399,8 +8996,12 @@
       <c r="G204" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H204">
+        <f t="shared" si="3"/>
+        <v>65.682752297830504</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>350</v>
       </c>
@@ -7422,8 +9023,12 @@
       <c r="G205" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H205">
+        <f t="shared" si="3"/>
+        <v>69.076480874228196</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>352</v>
       </c>
@@ -7445,8 +9050,12 @@
       <c r="G206" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H206">
+        <f t="shared" si="3"/>
+        <v>74.000523779049701</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>353</v>
       </c>
@@ -7468,8 +9077,12 @@
       <c r="G207" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H207">
+        <f t="shared" si="3"/>
+        <v>72.400574835324903</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>354</v>
       </c>
@@ -7491,8 +9104,12 @@
       <c r="G208" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H208">
+        <f t="shared" si="3"/>
+        <v>70.831826411281995</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>355</v>
       </c>
@@ -7514,8 +9131,12 @@
       <c r="G209" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H209">
+        <f t="shared" si="3"/>
+        <v>70.831826411281995</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>356</v>
       </c>
@@ -7537,8 +9158,12 @@
       <c r="G210" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H210">
+        <f t="shared" si="3"/>
+        <v>75.084761474261796</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>358</v>
       </c>
@@ -7560,8 +9185,12 @@
       <c r="G211" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H211">
+        <f t="shared" si="3"/>
+        <v>84.286849162622701</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>359</v>
       </c>
@@ -7583,8 +9212,12 @@
       <c r="G212" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H212">
+        <f t="shared" si="3"/>
+        <v>91.841410373624186</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>360</v>
       </c>
@@ -7606,8 +9239,12 @@
       <c r="G213" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H213">
+        <f t="shared" si="3"/>
+        <v>88.532171029787008</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>361</v>
       </c>
@@ -7629,8 +9266,12 @@
       <c r="G214" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H214">
+        <f t="shared" si="3"/>
+        <v>80.225629687962197</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>363</v>
       </c>
@@ -7652,8 +9293,12 @@
       <c r="G215" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H215">
+        <f t="shared" si="3"/>
+        <v>72.627215988542304</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>365</v>
       </c>
@@ -7675,8 +9320,12 @@
       <c r="G216" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H216">
+        <f t="shared" si="3"/>
+        <v>65.682752297830504</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>366</v>
       </c>
@@ -7698,8 +9347,12 @@
       <c r="G217" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H217">
+        <f t="shared" si="3"/>
+        <v>65.682752297830504</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>367</v>
       </c>
@@ -7721,8 +9374,12 @@
       <c r="G218" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H218">
+        <f t="shared" si="3"/>
+        <v>74.463459566343801</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>369</v>
       </c>
@@ -7744,8 +9401,12 @@
       <c r="G219" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H219">
+        <f t="shared" si="3"/>
+        <v>80.7234601292555</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>377</v>
       </c>
@@ -7767,8 +9428,12 @@
       <c r="G220" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H220">
+        <f t="shared" si="3"/>
+        <v>97.91808901108881</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>379</v>
       </c>
@@ -7790,8 +9455,12 @@
       <c r="G221" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H221">
+        <f t="shared" si="3"/>
+        <v>89.89774941259131</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>381</v>
       </c>
@@ -7813,8 +9482,12 @@
       <c r="G222" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H222">
+        <f t="shared" si="3"/>
+        <v>92.717335260933496</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>382</v>
       </c>
@@ -7836,8 +9509,12 @@
       <c r="G223" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H223">
+        <f t="shared" si="3"/>
+        <v>98.317953809887698</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>383</v>
       </c>
@@ -7859,8 +9536,12 @@
       <c r="G224" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H224">
+        <f t="shared" si="3"/>
+        <v>98.455552440414792</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>384</v>
       </c>
@@ -7882,8 +9563,12 @@
       <c r="G225" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H225">
+        <f t="shared" si="3"/>
+        <v>97.084999999999994</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>385</v>
       </c>
@@ -7905,8 +9590,12 @@
       <c r="G226" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H226">
+        <f t="shared" si="3"/>
+        <v>100.06282152775401</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>387</v>
       </c>
@@ -7928,8 +9617,12 @@
       <c r="G227" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H227">
+        <f t="shared" si="3"/>
+        <v>104.15501181941799</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>388</v>
       </c>
@@ -7951,8 +9644,12 @@
       <c r="G228" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H228">
+        <f t="shared" si="3"/>
+        <v>105.36852176540098</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>390</v>
       </c>
@@ -7974,8 +9671,12 @@
       <c r="G229" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H229">
+        <f t="shared" si="3"/>
+        <v>103.96661167221899</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>391</v>
       </c>
@@ -7997,8 +9698,12 @@
       <c r="G230" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H230">
+        <f t="shared" si="3"/>
+        <v>101.753564670869</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>393</v>
       </c>
@@ -8020,8 +9725,12 @@
       <c r="G231" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H231">
+        <f t="shared" si="3"/>
+        <v>99.108103649568406</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>395</v>
       </c>
@@ -8043,8 +9752,12 @@
       <c r="G232" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H232">
+        <f t="shared" si="3"/>
+        <v>97.084999999999994</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>396</v>
       </c>
@@ -8066,8 +9779,12 @@
       <c r="G233" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H233">
+        <f t="shared" si="3"/>
+        <v>98.339899344922017</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>398</v>
       </c>
@@ -8089,8 +9806,12 @@
       <c r="G234" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H234">
+        <f t="shared" si="3"/>
+        <v>90.972940117113993</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>400</v>
       </c>
@@ -8112,8 +9833,12 @@
       <c r="G235" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H235">
+        <f t="shared" si="3"/>
+        <v>82.6860074401948</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>401</v>
       </c>
@@ -8135,8 +9860,12 @@
       <c r="G236" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H236">
+        <f t="shared" si="3"/>
+        <v>82.6860074401948</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>402</v>
       </c>
@@ -8158,8 +9887,12 @@
       <c r="G237" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H237">
+        <f t="shared" si="3"/>
+        <v>76.552648411661593</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>404</v>
       </c>
@@ -8181,8 +9914,12 @@
       <c r="G238" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H238">
+        <f t="shared" si="3"/>
+        <v>75.084761474261796</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>405</v>
       </c>
@@ -8204,8 +9941,12 @@
       <c r="G239" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H239">
+        <f t="shared" si="3"/>
+        <v>75.084761474261796</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>406</v>
       </c>
@@ -8227,8 +9968,12 @@
       <c r="G240" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H240">
+        <f t="shared" si="3"/>
+        <v>75.084761474261796</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>407</v>
       </c>
@@ -8250,8 +9995,12 @@
       <c r="G241" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H241">
+        <f t="shared" si="3"/>
+        <v>77.296233214124499</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>408</v>
       </c>
@@ -8273,8 +10022,12 @@
       <c r="G242" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H242">
+        <f t="shared" si="3"/>
+        <v>82.233678103551895</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>409</v>
       </c>
@@ -8296,8 +10049,12 @@
       <c r="G243" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H243">
+        <f t="shared" si="3"/>
+        <v>88.532171029787008</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>410</v>
       </c>
@@ -8319,8 +10076,12 @@
       <c r="G244" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H244">
+        <f t="shared" si="3"/>
+        <v>98.765252969683615</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>411</v>
       </c>
@@ -8342,8 +10103,12 @@
       <c r="G245" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H245">
+        <f t="shared" si="3"/>
+        <v>102.298636456719</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>412</v>
       </c>
@@ -8365,8 +10130,12 @@
       <c r="G246" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H246">
+        <f t="shared" si="3"/>
+        <v>102.298636456719</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>413</v>
       </c>
@@ -8388,8 +10157,12 @@
       <c r="G247" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H247">
+        <f t="shared" si="3"/>
+        <v>102.298636456719</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>414</v>
       </c>
@@ -8411,8 +10184,12 @@
       <c r="G248" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H248">
+        <f t="shared" si="3"/>
+        <v>102.298636456719</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>415</v>
       </c>
@@ -8434,8 +10211,12 @@
       <c r="G249" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H249">
+        <f t="shared" si="3"/>
+        <v>97.084999999999994</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>416</v>
       </c>
@@ -8457,8 +10238,12 @@
       <c r="G250" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H250">
+        <f t="shared" si="3"/>
+        <v>89.258138081153021</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>418</v>
       </c>
@@ -8480,8 +10265,12 @@
       <c r="G251" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H251">
+        <f t="shared" si="3"/>
+        <v>95.261562845274085</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>420</v>
       </c>
@@ -8503,8 +10292,12 @@
       <c r="G252" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H252">
+        <f t="shared" si="3"/>
+        <v>97.084999999999994</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>421</v>
       </c>
@@ -8526,8 +10319,12 @@
       <c r="G253" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H253">
+        <f t="shared" si="3"/>
+        <v>97.638838468921691</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>422</v>
       </c>
@@ -8549,8 +10346,12 @@
       <c r="G254" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H254">
+        <f t="shared" si="3"/>
+        <v>92.717335260933496</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>423</v>
       </c>
@@ -8572,8 +10373,12 @@
       <c r="G255" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H255">
+        <f t="shared" si="3"/>
+        <v>84.286849162622701</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>424</v>
       </c>
@@ -8595,8 +10400,12 @@
       <c r="G256" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H256">
+        <f t="shared" si="3"/>
+        <v>76.552648411661593</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>425</v>
       </c>
@@ -8618,8 +10427,12 @@
       <c r="G257" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H257">
+        <f t="shared" si="3"/>
+        <v>76.341381403951402</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>426</v>
       </c>
@@ -8641,8 +10454,12 @@
       <c r="G258" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H258">
+        <f t="shared" si="3"/>
+        <v>77.296233214124499</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>427</v>
       </c>
@@ -8664,8 +10481,12 @@
       <c r="G259" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H259">
+        <f t="shared" ref="H259:H322" si="4">CONVERT(VALUE(LEFT(G259,LEN(G259)-2)),"m","cm")</f>
+        <v>77.296233214124499</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>428</v>
       </c>
@@ -8687,8 +10508,12 @@
       <c r="G260" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H260">
+        <f t="shared" si="4"/>
+        <v>73.64225517419591</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>429</v>
       </c>
@@ -8710,8 +10535,12 @@
       <c r="G261" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H261">
+        <f t="shared" si="4"/>
+        <v>73.64225517419591</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>430</v>
       </c>
@@ -8733,8 +10562,12 @@
       <c r="G262" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H262">
+        <f t="shared" si="4"/>
+        <v>73.64225517419591</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>431</v>
       </c>
@@ -8756,8 +10589,12 @@
       <c r="G263" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H263">
+        <f t="shared" si="4"/>
+        <v>66.796937304228194</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>432</v>
       </c>
@@ -8779,8 +10616,12 @@
       <c r="G264" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H264">
+        <f t="shared" si="4"/>
+        <v>55.485579146708794</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>434</v>
       </c>
@@ -8802,8 +10643,12 @@
       <c r="G265" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H265">
+        <f t="shared" si="4"/>
+        <v>56.382659052243596</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>435</v>
       </c>
@@ -8825,8 +10670,12 @@
       <c r="G266" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H266">
+        <f t="shared" si="4"/>
+        <v>60.873039471087395</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>436</v>
       </c>
@@ -8848,8 +10697,12 @@
       <c r="G267" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H267">
+        <f t="shared" si="4"/>
+        <v>60.679699821318202</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>438</v>
       </c>
@@ -8871,8 +10724,12 @@
       <c r="G268" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H268">
+        <f t="shared" si="4"/>
+        <v>58.030357353653393</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>440</v>
       </c>
@@ -8894,8 +10751,12 @@
       <c r="G269" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H269">
+        <f t="shared" si="4"/>
+        <v>57.028501574545096</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>442</v>
       </c>
@@ -8917,8 +10778,12 @@
       <c r="G270" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H270">
+        <f t="shared" si="4"/>
+        <v>58.174765286323407</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>444</v>
       </c>
@@ -8940,8 +10805,12 @@
       <c r="G271" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H271">
+        <f t="shared" si="4"/>
+        <v>60.529706818734297</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>446</v>
       </c>
@@ -8963,8 +10832,12 @@
       <c r="G272" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H272">
+        <f t="shared" si="4"/>
+        <v>64.042818927400603</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>447</v>
       </c>
@@ -8986,8 +10859,12 @@
       <c r="G273" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H273">
+        <f t="shared" si="4"/>
+        <v>64.858120875779903</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>449</v>
       </c>
@@ -9009,8 +10886,12 @@
       <c r="G274" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H274">
+        <f t="shared" si="4"/>
+        <v>65.498689779448</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>451</v>
       </c>
@@ -9032,8 +10913,12 @@
       <c r="G275" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H275">
+        <f t="shared" si="4"/>
+        <v>67.785771330897504</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>452</v>
       </c>
@@ -9055,8 +10940,12 @@
       <c r="G276" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H276">
+        <f t="shared" si="4"/>
+        <v>70.831826411281995</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>453</v>
       </c>
@@ -9078,8 +10967,12 @@
       <c r="G277" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H277">
+        <f t="shared" si="4"/>
+        <v>73.123923637140791</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>454</v>
       </c>
@@ -9101,8 +10994,12 @@
       <c r="G278" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H278">
+        <f t="shared" si="4"/>
+        <v>75.084761474261796</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>455</v>
       </c>
@@ -9124,8 +11021,12 @@
       <c r="G279" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H279">
+        <f t="shared" si="4"/>
+        <v>73.123923637140791</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>456</v>
       </c>
@@ -9147,8 +11048,12 @@
       <c r="G280" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H280">
+        <f t="shared" si="4"/>
+        <v>75.962422725259003</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>458</v>
       </c>
@@ -9170,8 +11075,12 @@
       <c r="G281" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H281">
+        <f t="shared" si="4"/>
+        <v>78.046312162350688</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>460</v>
       </c>
@@ -9193,8 +11102,12 @@
       <c r="G282" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H282">
+        <f t="shared" si="4"/>
+        <v>77.296233214124499</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>461</v>
       </c>
@@ -9216,8 +11129,12 @@
       <c r="G283" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H283">
+        <f t="shared" si="4"/>
+        <v>77.296233214124499</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>462</v>
       </c>
@@ -9239,8 +11156,12 @@
       <c r="G284" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H284">
+        <f t="shared" si="4"/>
+        <v>80.406338317637406</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>463</v>
       </c>
@@ -9262,8 +11183,12 @@
       <c r="G285" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H285">
+        <f t="shared" si="4"/>
+        <v>81.681591018722102</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>465</v>
       </c>
@@ -9285,8 +11210,12 @@
       <c r="G286" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H286">
+        <f t="shared" si="4"/>
+        <v>76.341381403951402</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>466</v>
       </c>
@@ -9308,8 +11237,12 @@
       <c r="G287" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H287">
+        <f t="shared" si="4"/>
+        <v>70.831826411281995</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>467</v>
       </c>
@@ -9331,8 +11264,12 @@
       <c r="G288" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H288">
+        <f t="shared" si="4"/>
+        <v>69.293736494893096</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>468</v>
       </c>
@@ -9354,8 +11291,12 @@
       <c r="G289" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H289">
+        <f t="shared" si="4"/>
+        <v>70.831826411281995</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>469</v>
       </c>
@@ -9377,8 +11318,12 @@
       <c r="G290" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H290">
+        <f t="shared" si="4"/>
+        <v>75.632223620489896</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>470</v>
       </c>
@@ -9400,8 +11345,12 @@
       <c r="G291" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H291">
+        <f t="shared" si="4"/>
+        <v>76.552648411661593</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>471</v>
       </c>
@@ -9423,8 +11372,12 @@
       <c r="G292" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H292">
+        <f t="shared" si="4"/>
+        <v>76.552648411661593</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>472</v>
       </c>
@@ -9446,8 +11399,12 @@
       <c r="G293" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H293">
+        <f t="shared" si="4"/>
+        <v>78.046312162350688</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>473</v>
       </c>
@@ -9469,8 +11426,12 @@
       <c r="G294" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H294">
+        <f t="shared" si="4"/>
+        <v>72.400574835324903</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>474</v>
       </c>
@@ -9492,8 +11453,12 @@
       <c r="G295" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H295">
+        <f t="shared" si="4"/>
+        <v>67.785771330897504</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>475</v>
       </c>
@@ -9515,8 +11480,12 @@
       <c r="G296" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H296">
+        <f t="shared" si="4"/>
+        <v>66.796937304228194</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>476</v>
       </c>
@@ -9538,8 +11507,12 @@
       <c r="G297" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H297">
+        <f t="shared" si="4"/>
+        <v>64.223195711159804</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>477</v>
       </c>
@@ -9561,8 +11534,12 @@
       <c r="G298" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H298">
+        <f t="shared" si="4"/>
+        <v>63.719289330290493</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>479</v>
       </c>
@@ -9584,8 +11561,12 @@
       <c r="G299" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H299">
+        <f t="shared" si="4"/>
+        <v>64.858120875779903</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>480</v>
       </c>
@@ -9607,8 +11588,12 @@
       <c r="G300" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H300">
+        <f t="shared" si="4"/>
+        <v>77.296233214124499</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>481</v>
       </c>
@@ -9630,8 +11615,12 @@
       <c r="G301" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H301">
+        <f t="shared" si="4"/>
+        <v>77.296233214124499</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>482</v>
       </c>
@@ -9653,8 +11642,12 @@
       <c r="G302" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H302">
+        <f t="shared" si="4"/>
+        <v>75.482560616308007</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>484</v>
       </c>
@@ -9676,8 +11669,12 @@
       <c r="G303" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H303">
+        <f t="shared" si="4"/>
+        <v>66.440592785415603</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>486</v>
       </c>
@@ -9699,8 +11696,12 @@
       <c r="G304" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H304">
+        <f t="shared" si="4"/>
+        <v>54.6972049689779</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>488</v>
       </c>
@@ -9722,8 +11723,12 @@
       <c r="G305" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H305">
+        <f t="shared" si="4"/>
+        <v>48.663498523340905</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>490</v>
       </c>
@@ -9745,8 +11750,12 @@
       <c r="G306" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H306">
+        <f t="shared" si="4"/>
+        <v>54.251245704658103</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>491</v>
       </c>
@@ -9768,8 +11777,12 @@
       <c r="G307" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H307">
+        <f t="shared" si="4"/>
+        <v>56.238254830188808</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>493</v>
       </c>
@@ -9791,8 +11804,12 @@
       <c r="G308" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H308">
+        <f t="shared" si="4"/>
+        <v>57.028501574545096</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>494</v>
       </c>
@@ -9814,8 +11831,12 @@
       <c r="G309" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H309">
+        <f t="shared" si="4"/>
+        <v>64.223195711159804</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>495</v>
       </c>
@@ -9837,8 +11858,12 @@
       <c r="G310" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H310">
+        <f t="shared" si="4"/>
+        <v>75.084761474261796</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>496</v>
       </c>
@@ -9860,8 +11885,12 @@
       <c r="G311" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H311">
+        <f t="shared" si="4"/>
+        <v>66.796937304228194</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>497</v>
       </c>
@@ -9883,8 +11912,12 @@
       <c r="G312" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H312">
+        <f t="shared" si="4"/>
+        <v>53.041680583445704</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>499</v>
       </c>
@@ -9906,8 +11939,12 @@
       <c r="G313" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H313">
+        <f t="shared" si="4"/>
+        <v>66.307405312754994</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>500</v>
       </c>
@@ -9929,8 +11966,12 @@
       <c r="G314" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H314">
+        <f t="shared" si="4"/>
+        <v>80.7234601292555</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>501</v>
       </c>
@@ -9952,8 +11993,12 @@
       <c r="G315" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H315">
+        <f t="shared" si="4"/>
+        <v>95.842601401873793</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>503</v>
       </c>
@@ -9975,8 +12020,12 @@
       <c r="G316" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H316">
+        <f t="shared" si="4"/>
+        <v>97.708504889146283</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>505</v>
       </c>
@@ -9998,8 +12047,12 @@
       <c r="G317" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H317">
+        <f t="shared" si="4"/>
+        <v>97.084999999999994</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>506</v>
       </c>
@@ -10021,8 +12074,12 @@
       <c r="G318" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H318">
+        <f t="shared" si="4"/>
+        <v>99.337945676332495</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>511</v>
       </c>
@@ -10044,8 +12101,12 @@
       <c r="G319" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H319">
+        <f t="shared" si="4"/>
+        <v>123.507657349171</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>513</v>
       </c>
@@ -10067,8 +12128,12 @@
       <c r="G320" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H320">
+        <f t="shared" si="4"/>
+        <v>116.330285597306</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>515</v>
       </c>
@@ -10090,8 +12155,12 @@
       <c r="G321" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H321">
+        <f t="shared" si="4"/>
+        <v>110.700407333431</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>517</v>
       </c>
@@ -10113,8 +12182,12 @@
       <c r="G322" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H322">
+        <f t="shared" si="4"/>
+        <v>100.00029444535801</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>519</v>
       </c>
@@ -10136,8 +12209,12 @@
       <c r="G323" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H323">
+        <f t="shared" ref="H323:H386" si="5">CONVERT(VALUE(LEFT(G323,LEN(G323)-2)),"m","cm")</f>
+        <v>104.391384210534</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>521</v>
       </c>
@@ -10159,8 +12236,12 @@
       <c r="G324" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H324">
+        <f t="shared" si="5"/>
+        <v>111.15201273766</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>523</v>
       </c>
@@ -10182,8 +12263,12 @@
       <c r="G325" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H325">
+        <f t="shared" si="5"/>
+        <v>118.689594806336</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>525</v>
       </c>
@@ -10205,8 +12290,12 @@
       <c r="G326" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H326">
+        <f t="shared" si="5"/>
+        <v>124.710528202194</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>527</v>
       </c>
@@ -10228,8 +12317,12 @@
       <c r="G327" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H327">
+        <f t="shared" si="5"/>
+        <v>113.666140797824</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>529</v>
       </c>
@@ -10251,8 +12344,12 @@
       <c r="G328" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H328">
+        <f t="shared" si="5"/>
+        <v>101.693334381524</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>531</v>
       </c>
@@ -10274,8 +12371,12 @@
       <c r="G329" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H329">
+        <f t="shared" si="5"/>
+        <v>97.583175385679084</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>533</v>
       </c>
@@ -10297,8 +12398,12 @@
       <c r="G330" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H330">
+        <f t="shared" si="5"/>
+        <v>87.238809441347911</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>535</v>
       </c>
@@ -10320,8 +12425,12 @@
       <c r="G331" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H331">
+        <f t="shared" si="5"/>
+        <v>98.317953809887698</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>536</v>
       </c>
@@ -10343,8 +12452,12 @@
       <c r="G332" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H332">
+        <f t="shared" si="5"/>
+        <v>99.917040526202911</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>537</v>
       </c>
@@ -10366,8 +12479,12 @@
       <c r="G333" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H333">
+        <f t="shared" si="5"/>
+        <v>114.40191694322701</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>539</v>
       </c>
@@ -10389,8 +12506,12 @@
       <c r="G334" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H334">
+        <f t="shared" si="5"/>
+        <v>113.20199282794201</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>541</v>
       </c>
@@ -10412,8 +12533,12 @@
       <c r="G335" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H335">
+        <f t="shared" si="5"/>
+        <v>117.494767899305</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>543</v>
       </c>
@@ -10435,8 +12560,12 @@
       <c r="G336" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H336">
+        <f t="shared" si="5"/>
+        <v>117.81149658221699</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>544</v>
       </c>
@@ -10458,8 +12587,12 @@
       <c r="G337" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H337">
+        <f t="shared" si="5"/>
+        <v>110.86426642099201</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>546</v>
       </c>
@@ -10481,8 +12614,12 @@
       <c r="G338" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H338">
+        <f t="shared" si="5"/>
+        <v>101.31160448065899</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>547</v>
       </c>
@@ -10504,8 +12641,12 @@
       <c r="G339" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H339">
+        <f t="shared" si="5"/>
+        <v>86.966656144552317</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>548</v>
       </c>
@@ -10527,8 +12668,12 @@
       <c r="G340" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H340">
+        <f t="shared" si="5"/>
+        <v>65.381800919709292</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>549</v>
       </c>
@@ -10550,8 +12695,12 @@
       <c r="G341" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H341">
+        <f t="shared" si="5"/>
+        <v>74.294818578864493</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>551</v>
       </c>
@@ -10573,8 +12722,12 @@
       <c r="G342" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H342">
+        <f t="shared" si="5"/>
+        <v>84.286849162622701</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>552</v>
       </c>
@@ -10596,8 +12749,12 @@
       <c r="G343" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H343">
+        <f t="shared" si="5"/>
+        <v>100.150484362665</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>553</v>
       </c>
@@ -10619,8 +12776,12 @@
       <c r="G344" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H344">
+        <f t="shared" si="5"/>
+        <v>68.118298370796609</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>555</v>
       </c>
@@ -10642,8 +12803,12 @@
       <c r="G345" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H345">
+        <f t="shared" si="5"/>
+        <v>53.041680583445704</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>556</v>
       </c>
@@ -10665,8 +12830,12 @@
       <c r="G346" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H346">
+        <f t="shared" si="5"/>
+        <v>43.1993596030443</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>557</v>
       </c>
@@ -10688,8 +12857,12 @@
       <c r="G347" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H347">
+        <f t="shared" si="5"/>
+        <v>44.205120952189397</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>558</v>
       </c>
@@ -10711,8 +12884,12 @@
       <c r="G348" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H348">
+        <f t="shared" si="5"/>
+        <v>44.205120952189397</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>559</v>
       </c>
@@ -10734,8 +12911,12 @@
       <c r="G349" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H349">
+        <f t="shared" si="5"/>
+        <v>54.251245704658103</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>560</v>
       </c>
@@ -10757,8 +12938,12 @@
       <c r="G350" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H350">
+        <f t="shared" si="5"/>
+        <v>66.307405312754994</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>561</v>
       </c>
@@ -10780,8 +12965,12 @@
       <c r="G351" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H351">
+        <f t="shared" si="5"/>
+        <v>82.487838552931606</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>562</v>
       </c>
@@ -10803,8 +12992,12 @@
       <c r="G352" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H352">
+        <f t="shared" si="5"/>
+        <v>97.708504889146283</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>563</v>
       </c>
@@ -10826,8 +13019,12 @@
       <c r="G353" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H353">
+        <f t="shared" si="5"/>
+        <v>101.618139922163</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>565</v>
       </c>
@@ -10849,8 +13046,12 @@
       <c r="G354" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H354">
+        <f t="shared" si="5"/>
+        <v>108.05551379313</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>566</v>
       </c>
@@ -10872,8 +13073,12 @@
       <c r="G355" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H355">
+        <f t="shared" si="5"/>
+        <v>114.40191694322701</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>567</v>
       </c>
@@ -10895,8 +13100,12 @@
       <c r="G356" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H356">
+        <f t="shared" si="5"/>
+        <v>123.239473793635</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>569</v>
       </c>
@@ -10918,8 +13127,12 @@
       <c r="G357" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H357">
+        <f t="shared" si="5"/>
+        <v>126.796913745438</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>571</v>
       </c>
@@ -10941,8 +13154,12 @@
       <c r="G358" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H358">
+        <f t="shared" si="5"/>
+        <v>123.239473793635</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>572</v>
       </c>
@@ -10964,8 +13181,12 @@
       <c r="G359" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H359">
+        <f t="shared" si="5"/>
+        <v>107.387621092575</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>574</v>
       </c>
@@ -10987,8 +13208,12 @@
       <c r="G360" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H360">
+        <f t="shared" si="5"/>
+        <v>97.084999999999994</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>575</v>
       </c>
@@ -11010,8 +13235,12 @@
       <c r="G361" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H361">
+        <f t="shared" si="5"/>
+        <v>85.915530854893589</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>576</v>
       </c>
@@ -11033,8 +13262,12 @@
       <c r="G362" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H362">
+        <f t="shared" si="5"/>
+        <v>97.901441173036005</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>577</v>
       </c>
@@ -11056,8 +13289,12 @@
       <c r="G363" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H363">
+        <f t="shared" si="5"/>
+        <v>100.94604065680299</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>579</v>
       </c>
@@ -11079,8 +13316,12 @@
       <c r="G364" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H364">
+        <f t="shared" si="5"/>
+        <v>65.682752297830504</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>580</v>
       </c>
@@ -11102,8 +13343,12 @@
       <c r="G365" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H365">
+        <f t="shared" si="5"/>
+        <v>42.353722140062601</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>582</v>
       </c>
@@ -11125,8 +13370,12 @@
       <c r="G366" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H366">
+        <f t="shared" si="5"/>
+        <v>40.304423660131199</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>584</v>
       </c>
@@ -11148,8 +13397,12 @@
       <c r="G367" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H367">
+        <f t="shared" si="5"/>
+        <v>48.442351441208501</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>586</v>
       </c>
@@ -11171,8 +13424,12 @@
       <c r="G368" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H368">
+        <f t="shared" si="5"/>
+        <v>62.970099932202594</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>588</v>
       </c>
@@ -11194,8 +13451,12 @@
       <c r="G369" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H369">
+        <f t="shared" si="5"/>
+        <v>76.552648411661593</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>589</v>
       </c>
@@ -11217,8 +13478,12 @@
       <c r="G370" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H370">
+        <f t="shared" si="5"/>
+        <v>103.88605815721502</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>591</v>
       </c>
@@ -11240,8 +13505,12 @@
       <c r="G371" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H371">
+        <f t="shared" si="5"/>
+        <v>109.584971702321</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>592</v>
       </c>
@@ -11263,8 +13532,12 @@
       <c r="G372" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H372">
+        <f t="shared" si="5"/>
+        <v>116.086347581816</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>593</v>
       </c>
@@ -11286,8 +13559,12 @@
       <c r="G373" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H373">
+        <f t="shared" si="5"/>
+        <v>108.730681447165</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>595</v>
       </c>
@@ -11309,8 +13586,12 @@
       <c r="G374" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H374">
+        <f t="shared" si="5"/>
+        <v>97.638838468921691</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>596</v>
       </c>
@@ -11332,8 +13613,12 @@
       <c r="G375" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H375">
+        <f t="shared" si="5"/>
+        <v>75.084761474261796</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>597</v>
       </c>
@@ -11355,8 +13640,12 @@
       <c r="G376" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H376">
+        <f t="shared" si="5"/>
+        <v>69.598927535833695</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>598</v>
       </c>
@@ -11378,8 +13667,12 @@
       <c r="G377" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H377">
+        <f t="shared" si="5"/>
+        <v>82.844850937053607</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>599</v>
       </c>
@@ -11401,8 +13694,12 @@
       <c r="G378" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H378">
+        <f t="shared" si="5"/>
+        <v>98.317953809887698</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>600</v>
       </c>
@@ -11424,8 +13721,12 @@
       <c r="G379" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H379">
+        <f t="shared" si="5"/>
+        <v>101.753564670869</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>601</v>
       </c>
@@ -11447,8 +13748,12 @@
       <c r="G380" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H380">
+        <f t="shared" si="5"/>
+        <v>102.798867047481</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>603</v>
       </c>
@@ -11470,8 +13775,12 @@
       <c r="G381" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H381">
+        <f t="shared" si="5"/>
+        <v>95.472481752305299</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>605</v>
       </c>
@@ -11493,8 +13802,12 @@
       <c r="G382" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H382">
+        <f t="shared" si="5"/>
+        <v>82.975018010786599</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>607</v>
       </c>
@@ -11516,8 +13829,12 @@
       <c r="G383" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H383">
+        <f t="shared" si="5"/>
+        <v>71.969663045126993</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>609</v>
       </c>
@@ -11539,8 +13856,12 @@
       <c r="G384" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H384">
+        <f t="shared" si="5"/>
+        <v>67.785771330897504</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>610</v>
       </c>
@@ -11562,8 +13883,12 @@
       <c r="G385" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H385">
+        <f t="shared" si="5"/>
+        <v>62.5984863679084</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>612</v>
       </c>
@@ -11585,8 +13910,12 @@
       <c r="G386" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H386">
+        <f t="shared" si="5"/>
+        <v>64.858120875779903</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>613</v>
       </c>
@@ -11608,8 +13937,12 @@
       <c r="G387" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H387">
+        <f t="shared" ref="H387:H393" si="6">CONVERT(VALUE(LEFT(G387,LEN(G387)-2)),"m","cm")</f>
+        <v>77.296233214124499</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>614</v>
       </c>
@@ -11631,8 +13964,12 @@
       <c r="G388" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H388">
+        <f t="shared" si="6"/>
+        <v>90.283493300817483</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>616</v>
       </c>
@@ -11654,8 +13991,12 @@
       <c r="G389" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H389">
+        <f t="shared" si="6"/>
+        <v>90.283493300817483</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>617</v>
       </c>
@@ -11677,8 +14018,12 @@
       <c r="G390" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H390">
+        <f t="shared" si="6"/>
+        <v>90.283493300817483</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>618</v>
       </c>
@@ -11700,8 +14045,12 @@
       <c r="G391" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H391">
+        <f t="shared" si="6"/>
+        <v>74.000523779049701</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>619</v>
       </c>
@@ -11723,27 +14072,32 @@
       <c r="G392" t="s">
         <v>351</v>
       </c>
+      <c r="H392">
+        <f t="shared" si="6"/>
+        <v>69.076480874228196</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="824708a1-24c0-400b-acee-f6a23ed5a4fd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="824708a1-24c0-400b-acee-f6a23ed5a4fd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11962,6 +14316,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B84CAAD4-20A9-4F0D-820C-0E30CA6EE929}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F2B1AFF-0641-4AF5-8F66-CF4C906C3A14}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="824708a1-24c0-400b-acee-f6a23ed5a4fd"/>
@@ -11974,14 +14336,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="7da2cd4d-ead7-4385-964c-8e1712485f48"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B84CAAD4-20A9-4F0D-820C-0E30CA6EE929}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
